--- a/REGULAR/CEO/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/CEO/GOMEZ, EMMA M..xlsx
@@ -1197,16 +1197,16 @@
     <t>SPL(1-0-0)</t>
   </si>
   <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>12/23,27-29/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-35)</t>
   </si>
   <si>
     <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>VL(23-0-0)</t>
+  </si>
+  <si>
+    <t>12/11-15,18-22,26-29/2023, 1/2-5,8-12/2024</t>
   </si>
 </sst>
 </file>
@@ -3635,8 +3635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K687" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K687"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K686" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K686"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4014,12 +4014,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K687"/>
+  <dimension ref="A2:K686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4200" topLeftCell="A617" activePane="bottomLeft"/>
+      <pane ySplit="4200" topLeftCell="A641" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="F623" sqref="F623"/>
+      <selection pane="bottomLeft" activeCell="E655" sqref="E655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,7 +4182,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.99000000000013</v>
+        <v>42.74000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4192,7 +4192,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>198.18299999999999</v>
+        <v>201.93299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.99000000000013</v>
+        <v>42.74000000000013</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14229,7 +14229,7 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>198.18299999999999</v>
+        <v>201.93299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.99000000000013</v>
+        <v>42.74000000000013</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15620,7 +15620,7 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>198.18299999999999</v>
+        <v>201.93299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
@@ -18412,7 +18412,7 @@
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="38"/>
       <c r="B630" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C630" s="13"/>
       <c r="D630" s="58">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="C636" s="13"/>
       <c r="D636" s="58">
-        <v>4</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
@@ -18563,19 +18563,15 @@
       <c r="H636" s="37"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="50" t="s">
-        <v>388</v>
-      </c>
+      <c r="K636" s="50"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="38"/>
-      <c r="B637" s="20" t="s">
-        <v>389</v>
-      </c>
+      <c r="A637" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B637" s="20"/>
       <c r="C637" s="13"/>
-      <c r="D637" s="58">
-        <v>7.3000000000000009E-2</v>
-      </c>
+      <c r="D637" s="37"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
       <c r="G637" s="13" t="str">
@@ -18588,33 +18584,40 @@
       <c r="K637" s="50"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="49" t="s">
-        <v>380</v>
+      <c r="A638" s="38">
+        <f>EDATE(A635,1)</f>
+        <v>44927</v>
       </c>
       <c r="B638" s="20"/>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="37"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="37"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="50"/>
+      <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="38">
-        <f>EDATE(A635,1)</f>
-        <v>44927</v>
-      </c>
-      <c r="B639" s="20"/>
+        <f t="shared" ref="A639" si="16">EDATE(A638,1)</f>
+        <v>44958</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C639" s="13">
         <v>1.25</v>
       </c>
-      <c r="D639" s="37"/>
+      <c r="D639" s="37">
+        <v>2</v>
+      </c>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
       <c r="G639" s="13">
@@ -18624,22 +18627,21 @@
       <c r="H639" s="37"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="20" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="38">
-        <f t="shared" ref="A640" si="16">EDATE(A639,1)</f>
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B640" s="20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C640" s="13">
         <v>1.25</v>
       </c>
-      <c r="D640" s="37">
-        <v>2</v>
-      </c>
+      <c r="D640" s="37"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
       <c r="G640" s="13">
@@ -18649,21 +18651,23 @@
       <c r="H640" s="37"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20" t="s">
-        <v>382</v>
+      <c r="K640" s="50">
+        <v>45008</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="38">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="C641" s="13">
         <v>1.25</v>
       </c>
-      <c r="D641" s="37"/>
+      <c r="D641" s="37">
+        <v>16</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
       <c r="G641" s="13">
@@ -18673,23 +18677,19 @@
       <c r="H641" s="37"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="50">
-        <v>45008</v>
+      <c r="K641" s="20" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B642" s="20" t="s">
-        <v>384</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B642" s="20"/>
       <c r="C642" s="13">
         <v>1.25</v>
       </c>
-      <c r="D642" s="37">
-        <v>16</v>
-      </c>
+      <c r="D642" s="37"/>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
       <c r="G642" s="13">
@@ -18699,15 +18699,15 @@
       <c r="H642" s="37"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20" t="s">
-        <v>385</v>
-      </c>
+      <c r="K642" s="20"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="38">
-        <v>45047</v>
-      </c>
-      <c r="B643" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B643" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="C643" s="13">
         <v>1.25</v>
       </c>
@@ -18721,14 +18721,16 @@
       <c r="H643" s="37"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
+      <c r="K643" s="50">
+        <v>45082</v>
+      </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B644" s="20" t="s">
-        <v>386</v>
+        <v>66</v>
       </c>
       <c r="C644" s="13">
         <v>1.25</v>
@@ -18744,16 +18746,14 @@
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
       <c r="K644" s="50">
-        <v>45082</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
-        <v>45108</v>
-      </c>
-      <c r="B645" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B645" s="20"/>
       <c r="C645" s="13">
         <v>1.25</v>
       </c>
@@ -18767,13 +18767,11 @@
       <c r="H645" s="37"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="50">
-        <v>45128</v>
-      </c>
+      <c r="K645" s="20"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13">
@@ -18793,34 +18791,44 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38">
-        <v>45170</v>
-      </c>
-      <c r="B647" s="20"/>
-      <c r="C647" s="13"/>
-      <c r="D647" s="37"/>
+        <v>45200</v>
+      </c>
+      <c r="B647" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D647" s="37">
+        <v>23</v>
+      </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="37"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="20" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B648" s="20"/>
-      <c r="C648" s="13"/>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D648" s="37"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="37"/>
       <c r="I648" s="9"/>
@@ -18829,7 +18837,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18847,7 +18855,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="38">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18865,7 +18873,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18883,7 +18891,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18901,7 +18909,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="38">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18919,7 +18927,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18937,7 +18945,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18955,7 +18963,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18973,7 +18981,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18991,7 +18999,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -19009,7 +19017,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -19027,7 +19035,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -19045,7 +19053,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -19063,7 +19071,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -19080,9 +19088,7 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="38">
-        <v>45658</v>
-      </c>
+      <c r="A663" s="38"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="37"/>
@@ -19450,36 +19456,20 @@
       <c r="K685" s="20"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="38"/>
-      <c r="B686" s="20"/>
-      <c r="C686" s="13"/>
-      <c r="D686" s="37"/>
-      <c r="E686" s="9"/>
-      <c r="F686" s="20"/>
-      <c r="G686" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H686" s="37"/>
-      <c r="I686" s="9"/>
-      <c r="J686" s="11"/>
-      <c r="K686" s="20"/>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="39"/>
-      <c r="B687" s="15"/>
-      <c r="C687" s="40"/>
-      <c r="D687" s="41"/>
-      <c r="E687" s="56"/>
-      <c r="F687" s="15"/>
-      <c r="G687" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H687" s="41"/>
-      <c r="I687" s="56"/>
-      <c r="J687" s="12"/>
-      <c r="K687" s="15"/>
+      <c r="A686" s="39"/>
+      <c r="B686" s="15"/>
+      <c r="C686" s="40"/>
+      <c r="D686" s="41"/>
+      <c r="E686" s="56"/>
+      <c r="F686" s="15"/>
+      <c r="G686" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H686" s="41"/>
+      <c r="I686" s="56"/>
+      <c r="J686" s="12"/>
+      <c r="K686" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
